--- a/material_de_aula/Tabela 1378 piramide 2010.xlsx
+++ b/material_de_aula/Tabela 1378 piramide 2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eec428a54d56c7e6/Documentos/UFRGS/Disciplinas/Demográfica/MAT02262/material_de_aula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{6A8AAFC6-B9FE-42D9-9E4B-E9636A651AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8810B35-5868-4F2A-9B7C-8CCAA3571050}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{6A8AAFC6-B9FE-42D9-9E4B-E9636A651AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54D2D79-0206-457A-9958-CE818547F8BA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Tabela 1378 - População residente, por situação do domicílio, sexo e idade, segundo a condição no domicílio e compartilhamento da responsabilidade pelo domicílio</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>15 a 19 anos</t>
+  </si>
+  <si>
+    <t>`Total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Acumulada</t>
+  </si>
+  <si>
+    <t>% Acumulada</t>
+  </si>
+  <si>
+    <t>Total/2</t>
   </si>
 </sst>
 </file>
@@ -141,7 +156,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -173,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -264,25 +285,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1525,6 +1559,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1812,78 +1850,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1893,8 +1944,20 @@
       <c r="C9" s="3">
         <v>6779171</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>C9+B9</f>
+        <v>13796158</v>
+      </c>
+      <c r="E9">
+        <f>D9</f>
+        <v>13796158</v>
+      </c>
+      <c r="F9" s="13">
+        <f>E9/$D$28 * 100</f>
+        <v>7.3444586340216143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1904,8 +1967,20 @@
       <c r="C10" s="3">
         <v>7345231</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" ref="D10:D27" si="0">C10+B10</f>
+        <v>14969375</v>
+      </c>
+      <c r="E10">
+        <f>E9+D10</f>
+        <v>28765533</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" ref="F10:F29" si="1">E10/$D$28 * 100</f>
+        <v>15.313485624337128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1915,8 +1990,20 @@
       <c r="C11" s="3">
         <v>8441348</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>17166761</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E29" si="2">E10+D11</f>
+        <v>45932294</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>24.452302825809852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1926,8 +2013,20 @@
       <c r="C12" s="3">
         <v>5134398</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>10357874</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>56290168</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>29.966372549381298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1937,8 +2036,20 @@
       <c r="C13" s="3">
         <v>3297606</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6632998</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>62923166</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
+        <v>33.49748457568225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1948,19 +2059,43 @@
       <c r="C14" s="3">
         <v>8614963</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>17245192</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>80168358</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
+        <v>42.678054940254796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="16">
         <v>8460995</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="16">
         <v>8643419</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="17">
+        <f t="shared" si="0"/>
+        <v>17104414</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" si="2"/>
+        <v>97272772</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="1"/>
+        <v>51.78368138220916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1970,8 +2105,20 @@
       <c r="C16" s="3">
         <v>8026854</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>15744512</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>113017284</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="1"/>
+        <v>60.165356707822049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1981,8 +2128,20 @@
       <c r="C17" s="3">
         <v>7121915</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>13888579</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>126905863</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="1"/>
+        <v>67.559016156404851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1992,8 +2151,20 @@
       <c r="C18" s="3">
         <v>6688796</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>13009364</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>139915227</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="1"/>
+        <v>74.484620788718431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2003,8 +2174,20 @@
       <c r="C19" s="3">
         <v>6141338</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>11833352</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>151748579</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="1"/>
+        <v>80.784169131511902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2014,8 +2197,20 @@
       <c r="C20" s="3">
         <v>5305407</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>10140402</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>161888981</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="1"/>
+        <v>86.182466470622543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2025,8 +2220,20 @@
       <c r="C21" s="3">
         <v>4373877</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>8276221</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>170165202</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="1"/>
+        <v>90.588357065708578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2036,8 +2243,20 @@
       <c r="C22" s="3">
         <v>3468085</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6509120</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>176674322</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="1"/>
+        <v>94.053521974945113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -2047,8 +2266,20 @@
       <c r="C23" s="3">
         <v>2616745</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>4840810</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>181515132</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="1"/>
+        <v>96.630553116525121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2058,8 +2289,20 @@
       <c r="C24" s="3">
         <v>2074264</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3741636</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>185256768</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="1"/>
+        <v>98.622433089599227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -2069,8 +2312,20 @@
       <c r="C25" s="3">
         <v>1472930</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2563447</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>187820215</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="1"/>
+        <v>99.987097835538407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2080,13 +2335,54 @@
       <c r="C26" s="3">
         <v>16989</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>24236</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>187844451</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B9:B26)</f>
+        <v>92281115</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C9:C26)</f>
+        <v>95563336</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D9:D26)</f>
+        <v>187844451</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="14">
+        <f>D28/2</f>
+        <v>93922225.5</v>
+      </c>
+      <c r="F29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2140,7 +2436,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2151,13 +2447,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2165,7 +2461,7 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>-7016987</v>
       </c>
       <c r="C2" s="3">
@@ -2176,7 +2472,7 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>-7624144</v>
       </c>
       <c r="C3" s="3">
@@ -2187,7 +2483,7 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>-8725413</v>
       </c>
       <c r="C4" s="3">
@@ -2195,10 +2491,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>-8558868</v>
       </c>
       <c r="C5">
@@ -2209,7 +2505,7 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>-8630229</v>
       </c>
       <c r="C6" s="3">
@@ -2220,7 +2516,7 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>-8460995</v>
       </c>
       <c r="C7" s="3">
@@ -2231,7 +2527,7 @@
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>-7717658</v>
       </c>
       <c r="C8" s="3">
@@ -2242,7 +2538,7 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>-6766664</v>
       </c>
       <c r="C9" s="3">
@@ -2253,7 +2549,7 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>-6320568</v>
       </c>
       <c r="C10" s="3">
@@ -2264,7 +2560,7 @@
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>-5692014</v>
       </c>
       <c r="C11" s="3">
@@ -2275,7 +2571,7 @@
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>-4834995</v>
       </c>
       <c r="C12" s="3">
@@ -2286,7 +2582,7 @@
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>-3902344</v>
       </c>
       <c r="C13" s="3">
@@ -2297,7 +2593,7 @@
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>-3041035</v>
       </c>
       <c r="C14" s="3">
@@ -2308,7 +2604,7 @@
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>-2224065</v>
       </c>
       <c r="C15" s="3">
@@ -2319,7 +2615,7 @@
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>-1667372</v>
       </c>
       <c r="C16" s="3">
@@ -2330,7 +2626,7 @@
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>-1090517</v>
       </c>
       <c r="C17" s="3">
@@ -2341,7 +2637,7 @@
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>-7247</v>
       </c>
       <c r="C18" s="3">
@@ -2350,12 +2646,12 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3"/>
     </row>
   </sheetData>
